--- a/DFGoServer/Data/Ad.xlsx
+++ b/DFGoServer/Data/Ad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DFGoServer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MyUFWork\DFGoServer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D8B8E4-F1E0-4C74-BB70-DCC1ACEA9D05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2370484E-F76D-4D83-B305-AA3D2B3306CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33075" yWindow="6105" windowWidth="21600" windowHeight="11385" xr2:uid="{17A4A696-1D43-4E02-A9C3-E536D45E3ADF}"/>
+    <workbookView xWindow="29805" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{17A4A696-1D43-4E02-A9C3-E536D45E3ADF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ad" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>#_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>uu5!^%jg</t>
   </si>
 </sst>
 </file>
@@ -623,7 +620,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -730,8 +727,8 @@
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
+      <c r="F4" s="3">
+        <v>123</v>
       </c>
       <c r="G4" s="3">
         <v>3306</v>
